--- a/bin/Debug/Report.xlsx
+++ b/bin/Debug/Report.xlsx
@@ -12,12 +12,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Company:</t>
-  </si>
-  <si>
-    <t>sasdf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>20.02.24 10:18:57</t>
+  </si>
+  <si>
+    <t>77770006</t>
+  </si>
+  <si>
+    <t>Gen06h</t>
+  </si>
+  <si>
+    <t>20.02.24 10:21:04</t>
+  </si>
+  <si>
+    <t>20.02.24 12:00:28</t>
+  </si>
+  <si>
+    <t>20.02.24 12:04:55</t>
+  </si>
+  <si>
+    <t>20.02.24 12:33:33</t>
+  </si>
+  <si>
+    <t>20.02.24 12:49:13</t>
+  </si>
+  <si>
+    <t>20.02.24 12:54:08</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>20.02.24 12:54:28</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>20.02.24 12:55:47</t>
+  </si>
+  <si>
+    <t>BELбел</t>
+  </si>
+  <si>
+    <t>20.02.24 12:56:44</t>
+  </si>
+  <si>
+    <t>20.02.24 12:58:03</t>
+  </si>
+  <si>
+    <t>2D4D0020</t>
+  </si>
+  <si>
+    <t>Кухня</t>
+  </si>
+  <si>
+    <t>20.02.24 13:12:26</t>
+  </si>
+  <si>
+    <t>212497</t>
+  </si>
+  <si>
+    <t>ODN22</t>
+  </si>
+  <si>
+    <t>20.02.24 13:51:37</t>
+  </si>
+  <si>
+    <t>3A430047</t>
+  </si>
+  <si>
+    <t>#3-2</t>
+  </si>
+  <si>
+    <t>20.02.24 13:53:04</t>
+  </si>
+  <si>
+    <t>#3-3</t>
+  </si>
+  <si>
+    <t>20.02.24 13:59:08</t>
+  </si>
+  <si>
+    <t>#3-4</t>
+  </si>
+  <si>
+    <t>20.02.24 14:13:52</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>20.02.24 15:28:23</t>
+  </si>
+  <si>
+    <t>20.02.24 15:29:47</t>
+  </si>
+  <si>
+    <t>20.02.24 15:31:24</t>
+  </si>
+  <si>
+    <t>20.02.24 15:32:44</t>
+  </si>
+  <si>
+    <t>20.02.24 15:33:53</t>
+  </si>
+  <si>
+    <t>20.02.24 15:34:37</t>
+  </si>
+  <si>
+    <t>20.02.24 15:35:22</t>
+  </si>
+  <si>
+    <t>20.02.24 15:38:55</t>
+  </si>
+  <si>
+    <t>20.02.24 15:48:13</t>
+  </si>
+  <si>
+    <t>кухня</t>
+  </si>
+  <si>
+    <t>20.02.24 15:48:26</t>
+  </si>
+  <si>
+    <t>212496</t>
+  </si>
+  <si>
+    <t>ODN11</t>
+  </si>
+  <si>
+    <t>20.02.24 15:48:30</t>
+  </si>
+  <si>
+    <t>20.02.24 16:01:30</t>
+  </si>
+  <si>
+    <t>20.02.24 16:01:39</t>
+  </si>
+  <si>
+    <t>ODN111</t>
+  </si>
+  <si>
+    <t>20.02.24 16:01:44</t>
+  </si>
+  <si>
+    <t>ODN222</t>
+  </si>
+  <si>
+    <t>20.02.24 18:57:29</t>
+  </si>
+  <si>
+    <t>20.02.24 19:10:15</t>
+  </si>
+  <si>
+    <t>#333</t>
+  </si>
+  <si>
+    <t>20.02.24 19:10:55</t>
+  </si>
+  <si>
+    <t>21.02.24 11:43:15</t>
+  </si>
+  <si>
+    <t>237006</t>
+  </si>
+  <si>
+    <t>73M</t>
+  </si>
+  <si>
+    <t>09.03.24 10:57:46</t>
   </si>
 </sst>
 </file>
@@ -63,18 +228,395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B2:C2"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="B2" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/bin/Debug/Report.xlsx
+++ b/bin/Debug/Report.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Market Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
